--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://veleucilisteupozegi-my.sharepoint.com/personal/kdokic_ftrr_hr/Documents/NASTAVA/2425/RADOVI/IP_MAROKO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DCF846-4B7D-49E7-80F4-4087FCE278E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{B1DCF846-4B7D-49E7-80F4-4087FCE278E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB65693A-B2C3-449A-A476-DD60AEFED54C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{F35B6688-6A4C-4E32-9D5D-1EAD4B4C14CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{F35B6688-6A4C-4E32-9D5D-1EAD4B4C14CA}"/>
   </bookViews>
   <sheets>
     <sheet name="GPT" sheetId="1" r:id="rId1"/>
@@ -232,13 +232,13 @@
     <t xml:space="preserve">Euclidian </t>
   </si>
   <si>
-    <t xml:space="preserve">Manhattan </t>
-  </si>
-  <si>
     <t xml:space="preserve">Minkowski </t>
   </si>
   <si>
     <t xml:space="preserve">Cosine </t>
+  </si>
+  <si>
+    <t>Manhattan </t>
   </si>
 </sst>
 </file>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5D8BCB-05BF-49C0-9184-F66935B828F1}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,13 +615,13 @@
         <v>64</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -632,13 +632,13 @@
         <v>0.69890604938635303</v>
       </c>
       <c r="C2" s="1">
+        <v>1.65368692099999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.69890604938635303</v>
+      </c>
+      <c r="E2" s="1">
         <v>9.6650297228753096E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.65368692099999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.69890604938635303</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -649,13 +649,13 @@
         <v>0.76980186337878098</v>
       </c>
       <c r="C3" s="1">
+        <v>1.8223991900000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.76980186337878098</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.11752022423957199</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.8223991900000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.76980186337878098</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -666,13 +666,13 @@
         <v>0.82870373923760399</v>
       </c>
       <c r="C4" s="1">
+        <v>1.6518033479999901</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.82870373923760399</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.116577654633084</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.6518033479999901</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.82870373923760399</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -683,13 +683,13 @@
         <v>0.49954326260988802</v>
       </c>
       <c r="C5" s="1">
+        <v>1.14502858</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.49954326260988802</v>
+      </c>
+      <c r="E5" s="1">
         <v>3.9598344913076997E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.14502858</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.49954326260988802</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -700,13 +700,13 @@
         <v>0.66282653661820701</v>
       </c>
       <c r="C6" s="1">
+        <v>1.3334259259999901</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.66282653661820701</v>
+      </c>
+      <c r="E6" s="1">
         <v>7.7424906361875601E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.3334259259999901</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.66282653661820701</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,13 +717,13 @@
         <v>0.97125818592539803</v>
       </c>
       <c r="C7" s="1">
+        <v>2.3380148159999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.97125818592539803</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.19193262099418801</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.3380148159999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.97125818592539803</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -734,13 +734,13 @@
         <v>0.69581823032108503</v>
       </c>
       <c r="C8" s="1">
+        <v>1.6581026209999901</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.69581823032108503</v>
+      </c>
+      <c r="E8" s="1">
         <v>8.9344498451565099E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.6581026209999901</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.69581823032108503</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -751,13 +751,13 @@
         <v>0.54846101356281296</v>
       </c>
       <c r="C9" s="1">
+        <v>1.30059178299999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.54846101356281296</v>
+      </c>
+      <c r="E9" s="1">
         <v>5.2707340238638399E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.30059178299999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.54846101356281296</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -768,13 +768,13 @@
         <v>0.86795236202866299</v>
       </c>
       <c r="C10" s="1">
+        <v>2.1135183089999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.86795236202866299</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.15372281094164</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.1135183089999998</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.86795236202866299</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -785,13 +785,13 @@
         <v>0.45629384365481501</v>
       </c>
       <c r="C11" s="1">
+        <v>0.89253742799999902</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.45629384365481501</v>
+      </c>
+      <c r="E11" s="1">
         <v>3.9529745259707497E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.89253742799999902</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.45629384365481501</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -802,13 +802,13 @@
         <v>0.930415063359463</v>
       </c>
       <c r="C12" s="1">
+        <v>2.237646201</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.930415063359463</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.17511417951519201</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.237646201</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.930415063359463</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -819,13 +819,13 @@
         <v>0.74520811970425505</v>
       </c>
       <c r="C13" s="1">
+        <v>1.746772969</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.74520811970425505</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.11072571066525599</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.746772969</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.74520811970425505</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -836,13 +836,13 @@
         <v>0.821406932255203</v>
       </c>
       <c r="C14" s="1">
+        <v>1.9613738089999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.821406932255203</v>
+      </c>
+      <c r="E14" s="1">
         <v>0.136182466709799</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.9613738089999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.821406932255203</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -853,13 +853,13 @@
         <v>0.49474311414167699</v>
       </c>
       <c r="C15" s="1">
+        <v>1.146093501</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.49474311414167699</v>
+      </c>
+      <c r="E15" s="1">
         <v>4.3214985311578302E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.146093501</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.49474311414167699</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -870,13 +870,13 @@
         <v>0.95762622593969804</v>
       </c>
       <c r="C16" s="1">
+        <v>2.3279785819999899</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.95762622593969804</v>
+      </c>
+      <c r="E16" s="1">
         <v>0.18881754111261401</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.3279785819999899</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.95762622593969804</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -887,13 +887,13 @@
         <v>0.66951901837948902</v>
       </c>
       <c r="C17" s="1">
+        <v>1.55699079</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.66951901837948902</v>
+      </c>
+      <c r="E17" s="1">
         <v>8.5954151007926693E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.55699079</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.66951901837948902</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -904,13 +904,13 @@
         <v>0.574769119403155</v>
       </c>
       <c r="C18" s="1">
+        <v>1.206801472</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.574769119403155</v>
+      </c>
+      <c r="E18" s="1">
         <v>6.4019298139302294E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.206801472</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.574769119403155</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -921,13 +921,13 @@
         <v>0.54024179596023703</v>
       </c>
       <c r="C19" s="1">
+        <v>1.2544624339999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.54024179596023703</v>
+      </c>
+      <c r="E19" s="1">
         <v>4.6504828257754503E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.2544624339999999</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.54024179596023703</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -938,13 +938,13 @@
         <v>0.69090041463535101</v>
       </c>
       <c r="C20" s="1">
+        <v>1.6007201659999899</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.69090041463535101</v>
+      </c>
+      <c r="E20" s="1">
         <v>9.3407798046593604E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.6007201659999899</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.69090041463535101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -955,13 +955,13 @@
         <v>0.889703648857183</v>
       </c>
       <c r="C21" s="1">
+        <v>2.1207439199999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.889703648857183</v>
+      </c>
+      <c r="E21" s="1">
         <v>0.158784079149142</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2.1207439199999998</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.889703648857183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -972,13 +972,13 @@
         <v>0.71468232553369104</v>
       </c>
       <c r="C22" s="1">
+        <v>1.70087588899999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.71468232553369104</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.101127000846833</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.70087588899999</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.71468232553369104</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -989,13 +989,13 @@
         <v>0.45445038111543901</v>
       </c>
       <c r="C23" s="1">
+        <v>1.0485008819999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.45445038111543901</v>
+      </c>
+      <c r="E23" s="1">
         <v>3.8443648210086202E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.0485008819999999</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.45445038111543901</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1006,13 +1006,13 @@
         <v>0.56717440757168203</v>
       </c>
       <c r="C24" s="1">
+        <v>1.3378462499999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.56717440757168203</v>
+      </c>
+      <c r="E24" s="1">
         <v>6.2222994402244602E-2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.3378462499999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.56717440757168203</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1023,13 +1023,13 @@
         <v>0.63984152034222297</v>
       </c>
       <c r="C25" s="1">
+        <v>1.4522222229999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.63984152034222297</v>
+      </c>
+      <c r="E25" s="1">
         <v>7.9862722460491198E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.4522222229999999</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.63984152034222297</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1040,13 +1040,13 @@
         <v>0.70525921694419402</v>
       </c>
       <c r="C26" s="1">
+        <v>1.637011024</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.70525921694419402</v>
+      </c>
+      <c r="E26" s="1">
         <v>9.8523615621721294E-2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.637011024</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.70525921694419402</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1057,13 +1057,13 @@
         <v>0.48217016913121102</v>
       </c>
       <c r="C27" s="1">
+        <v>1.1222459149999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.48217016913121102</v>
+      </c>
+      <c r="E27" s="1">
         <v>3.7090915132682402E-2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.1222459149999999</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.48217016913121102</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1074,13 +1074,13 @@
         <v>0.78385409102352099</v>
       </c>
       <c r="C28" s="1">
+        <v>1.786885246</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.78385409102352099</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.118284965127082</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.786885246</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.78385409102352099</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1091,13 +1091,13 @@
         <v>0.77172527653940104</v>
       </c>
       <c r="C29" s="1">
+        <v>1.822964775</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.77172527653940104</v>
+      </c>
+      <c r="E29" s="1">
         <v>0.118789087660398</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1.822964775</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.77172527653940104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1108,13 +1108,13 @@
         <v>0.68597515709046297</v>
       </c>
       <c r="C30" s="1">
+        <v>1.387825383</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.68597515709046297</v>
+      </c>
+      <c r="E30" s="1">
         <v>8.4340697680397897E-2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.387825383</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.68597515709046297</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1125,13 +1125,13 @@
         <v>0.78899752649048505</v>
       </c>
       <c r="C31" s="1">
+        <v>1.87005801099999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.78899752649048505</v>
+      </c>
+      <c r="E31" s="1">
         <v>0.124522771662836</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.87005801099999</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.78899752649048505</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1142,13 +1142,13 @@
         <v>0.78196607130277496</v>
       </c>
       <c r="C32" s="1">
+        <v>1.83547925599999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.78196607130277496</v>
+      </c>
+      <c r="E32" s="1">
         <v>0.12207930277456</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.83547925599999</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.78196607130277496</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1159,13 +1159,13 @@
         <v>0.61439168159510904</v>
       </c>
       <c r="C33" s="1">
+        <v>1.2770876489999901</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.61439168159510904</v>
+      </c>
+      <c r="E33" s="1">
         <v>7.0559452943879497E-2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.2770876489999901</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.61439168159510904</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1176,13 +1176,13 @@
         <v>0.62029729518357601</v>
       </c>
       <c r="C34" s="1">
+        <v>1.483489514</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.62029729518357601</v>
+      </c>
+      <c r="E34" s="1">
         <v>7.3894222093702694E-2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1.483489514</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.62029729518357601</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1193,13 +1193,13 @@
         <v>0.62948100176385902</v>
       </c>
       <c r="C35" s="1">
+        <v>1.41777777999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.62948100176385902</v>
+      </c>
+      <c r="E35" s="1">
         <v>7.7438801667371104E-2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.41777777999999</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.62948100176385902</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1210,13 +1210,13 @@
         <v>0.71750209936299203</v>
       </c>
       <c r="C36" s="1">
+        <v>1.5789701899999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.71750209936299203</v>
+      </c>
+      <c r="E36" s="1">
         <v>9.7283989284074293E-2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.5789701899999999</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.71750209936299203</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1227,13 +1227,13 @@
         <v>0.89569506159281898</v>
       </c>
       <c r="C37" s="1">
+        <v>2.1194980819999998</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.89569506159281898</v>
+      </c>
+      <c r="E37" s="1">
         <v>0.15815870088662501</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2.1194980819999998</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.89569506159281898</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1244,13 +1244,13 @@
         <v>0.69583560064007999</v>
       </c>
       <c r="C38" s="1">
+        <v>1.6008333340000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.69583560064007999</v>
+      </c>
+      <c r="E38" s="1">
         <v>9.4811510059447504E-2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.6008333340000001</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.69583560064007999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1261,13 +1261,13 @@
         <v>0.84167803077063896</v>
       </c>
       <c r="C39" s="1">
+        <v>2.0079267459999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.84167803077063896</v>
+      </c>
+      <c r="E39" s="1">
         <v>0.14207868729391401</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2.0079267459999999</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.84167803077063896</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1278,13 +1278,13 @@
         <v>0.74984083496976695</v>
       </c>
       <c r="C40" s="1">
+        <v>1.75560633</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.74984083496976695</v>
+      </c>
+      <c r="E40" s="1">
         <v>0.111495605244992</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1.75560633</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.74984083496976695</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1295,13 +1295,13 @@
         <v>0.68771422166242402</v>
       </c>
       <c r="C41" s="1">
+        <v>1.5925925940000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.68771422166242402</v>
+      </c>
+      <c r="E41" s="1">
         <v>9.3067497251597603E-2</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1.5925925940000001</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.68771422166242402</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1312,13 +1312,13 @@
         <v>0.92087068641932102</v>
       </c>
       <c r="C42" s="1">
+        <v>2.188240741</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.92087068641932102</v>
+      </c>
+      <c r="E42" s="1">
         <v>0.16843437851954099</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2.188240741</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.92087068641932102</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1329,13 +1329,13 @@
         <v>0.62865161590826601</v>
       </c>
       <c r="C43" s="1">
+        <v>1.51090342799999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.62865161590826601</v>
+      </c>
+      <c r="E43" s="1">
         <v>7.2360323981147404E-2</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1.51090342799999</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.62865161590826601</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1346,13 +1346,13 @@
         <v>0.50341575977330899</v>
       </c>
       <c r="C44" s="1">
+        <v>1.13525980199999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.50341575977330899</v>
+      </c>
+      <c r="E44" s="1">
         <v>3.3881879646569399E-2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1.13525980199999</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.50341575977330899</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1363,13 +1363,13 @@
         <v>0.560351817801782</v>
       </c>
       <c r="C45" s="1">
+        <v>1.2964068559999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.560351817801782</v>
+      </c>
+      <c r="E45" s="1">
         <v>5.0974317316404401E-2</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1.2964068559999999</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.560351817801782</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1380,13 +1380,13 @@
         <v>0.80611331327551405</v>
       </c>
       <c r="C46" s="1">
+        <v>1.7756825039999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.80611331327551405</v>
+      </c>
+      <c r="E46" s="1">
         <v>0.123338551419492</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1.7756825039999999</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.80611331327551405</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1397,13 +1397,13 @@
         <v>0.92881235468886703</v>
       </c>
       <c r="C47" s="1">
+        <v>2.2413249199999998</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.92881235468886703</v>
+      </c>
+      <c r="E47" s="1">
         <v>0.17575865476837699</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2.2413249199999998</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.92881235468886703</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1414,13 +1414,13 @@
         <v>0.81349169304908597</v>
       </c>
       <c r="C48" s="1">
+        <v>1.9600854000000001</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.81349169304908597</v>
+      </c>
+      <c r="E48" s="1">
         <v>0.133579739241414</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1.9600854000000001</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.81349169304908597</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1431,13 +1431,13 @@
         <v>0.920839426553822</v>
       </c>
       <c r="C49" s="1">
+        <v>2.1243534049999999</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.920839426553822</v>
+      </c>
+      <c r="E49" s="1">
         <v>0.16702450767843999</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2.1243534049999999</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.920839426553822</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1448,13 +1448,13 @@
         <v>0.73777947925809395</v>
       </c>
       <c r="C50" s="1">
+        <v>1.719715957</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.73777947925809395</v>
+      </c>
+      <c r="E50" s="1">
         <v>0.10664583140629</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1.719715957</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.73777947925809395</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1465,13 +1465,13 @@
         <v>0.67649144487033896</v>
       </c>
       <c r="C51" s="1">
+        <v>1.55025791199999</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.67649144487033896</v>
+      </c>
+      <c r="E51" s="1">
         <v>8.9218518854527903E-2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1.55025791199999</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.67649144487033896</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1482,13 +1482,13 @@
         <v>0.69763663190411096</v>
       </c>
       <c r="C52" s="1">
+        <v>1.654639467</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.69763663190411096</v>
+      </c>
+      <c r="E52" s="1">
         <v>9.5743849616986496E-2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.654639467</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0.69763663190411096</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1499,13 +1499,13 @@
         <v>0.72552252709107801</v>
       </c>
       <c r="C53" s="1">
+        <v>1.7286477899999999</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.72552252709107801</v>
+      </c>
+      <c r="E53" s="1">
         <v>0.10435155293404701</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.7286477899999999</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.72552252709107801</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1516,13 +1516,13 @@
         <v>0.89055326600478901</v>
       </c>
       <c r="C54" s="1">
+        <v>2.0833333349999998</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.89055326600478901</v>
+      </c>
+      <c r="E54" s="1">
         <v>0.15602756310301899</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2.0833333349999998</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.89055326600478901</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1533,13 +1533,13 @@
         <v>0.781371463935007</v>
       </c>
       <c r="C55" s="1">
+        <v>1.86869379799999</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.781371463935007</v>
+      </c>
+      <c r="E55" s="1">
         <v>0.12062383001004</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1.86869379799999</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.781371463935007</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1550,13 +1550,13 @@
         <v>0.46670527308932602</v>
       </c>
       <c r="C56" s="1">
+        <v>1.0806481489999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.46670527308932602</v>
+      </c>
+      <c r="E56" s="1">
         <v>4.1738573720883597E-2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1.0806481489999999</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.46670527308932602</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1567,13 +1567,13 @@
         <v>0.73547876742724505</v>
       </c>
       <c r="C57" s="1">
+        <v>1.727133212</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.73547876742724505</v>
+      </c>
+      <c r="E57" s="1">
         <v>0.103507444199934</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1.727133212</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.73547876742724505</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,13 +1584,13 @@
         <v>0.71951475276959498</v>
       </c>
       <c r="C58" s="1">
+        <v>1.72019932899999</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.71951475276959498</v>
+      </c>
+      <c r="E58" s="1">
         <v>0.102788458623617</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1.72019932899999</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.71951475276959498</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1601,13 +1601,13 @@
         <v>0.67737963960988301</v>
       </c>
       <c r="C59" s="1">
+        <v>1.6096563019999901</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.67737963960988301</v>
+      </c>
+      <c r="E59" s="1">
         <v>8.9303183251845303E-2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1.6096563019999901</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0.67737963960988301</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1618,13 +1618,13 @@
         <v>0.752183690221089</v>
       </c>
       <c r="C60" s="1">
+        <v>1.71756865499999</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.752183690221089</v>
+      </c>
+      <c r="E60" s="1">
         <v>0.108757036162035</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1.71756865499999</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.752183690221089</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1635,13 +1635,13 @@
         <v>0.75751386574678503</v>
       </c>
       <c r="C61" s="1">
+        <v>1.8281710929999999</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.75751386574678503</v>
+      </c>
+      <c r="E61" s="1">
         <v>0.11466020940414</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1.8281710929999999</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0.75751386574678503</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1652,13 +1652,13 @@
         <v>0.53844720249036804</v>
       </c>
       <c r="C62" s="1">
+        <v>1.28332452999999</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.53844720249036804</v>
+      </c>
+      <c r="E62" s="1">
         <v>4.9387330473291503E-2</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1.28332452999999</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0.53844720249036804</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1669,13 +1669,13 @@
         <v>0.72134941332529401</v>
       </c>
       <c r="C63" s="1">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.72134941332529401</v>
+      </c>
+      <c r="E63" s="1">
         <v>9.3865749618862002E-2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1.5349999999999999</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0.72134941332529401</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1686,13 +1686,13 @@
         <v>0.60620570673076701</v>
       </c>
       <c r="C64" s="1">
+        <v>1.3615116380000001</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.60620570673076701</v>
+      </c>
+      <c r="E64" s="1">
         <v>7.1380251723985502E-2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1.3615116380000001</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.60620570673076701</v>
       </c>
     </row>
   </sheetData>
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73735E7-594E-4666-A459-27E121EA5B91}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1723,13 +1723,13 @@
         <v>64</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1740,13 +1740,13 @@
         <v>0.43269521736544903</v>
       </c>
       <c r="C2" s="1">
+        <v>0.98702025377777902</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.43269521736544903</v>
+      </c>
+      <c r="E2" s="1">
         <v>4.2250610581144703E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.98702025377777902</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.43269521736544903</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1757,13 +1757,13 @@
         <v>0.53378089914271998</v>
       </c>
       <c r="C3" s="1">
+        <v>1.1557325227777699</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.53378089914271998</v>
+      </c>
+      <c r="E3" s="1">
         <v>6.2707900495992605E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.1557325227777699</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.53378089914271998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,13 +1774,13 @@
         <v>0.60667033655239899</v>
       </c>
       <c r="C4" s="1">
+        <v>1.21089283922222</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.60667033655239899</v>
+      </c>
+      <c r="E4" s="1">
         <v>5.6867347991741701E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.21089283922222</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.60667033655239899</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1791,13 +1791,13 @@
         <v>0.33150509229152503</v>
       </c>
       <c r="C5" s="1">
+        <v>0.72131147566666698</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.33150509229152503</v>
+      </c>
+      <c r="E5" s="1">
         <v>2.1660449987212001E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.72131147566666698</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.33150509229152503</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1808,13 +1808,13 @@
         <v>0.45964461684858299</v>
       </c>
       <c r="C6" s="1">
+        <v>0.890648147666667</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.45964461684858299</v>
+      </c>
+      <c r="E6" s="1">
         <v>3.2432593414493997E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.890648147666667</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.45964461684858299</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1825,13 +1825,13 @@
         <v>0.73247598183629403</v>
       </c>
       <c r="C7" s="1">
+        <v>1.6713481487777699</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.73247598183629403</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.121457603761808</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.6713481487777699</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.73247598183629403</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1842,13 +1842,13 @@
         <v>0.501814857271631</v>
       </c>
       <c r="C8" s="1">
+        <v>1.1358434846666601</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.501814857271631</v>
+      </c>
+      <c r="E8" s="1">
         <v>5.4330442602911901E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.1358434846666601</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.501814857271631</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1859,13 +1859,13 @@
         <v>0.37748800880454703</v>
       </c>
       <c r="C9" s="1">
+        <v>0.83302914666666605</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.37748800880454703</v>
+      </c>
+      <c r="E9" s="1">
         <v>3.0500122432351E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.83302914666666605</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.37748800880454703</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,13 +1876,13 @@
         <v>0.62924564657242099</v>
       </c>
       <c r="C10" s="1">
+        <v>1.4468516417777699</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.62924564657242099</v>
+      </c>
+      <c r="E10" s="1">
         <v>9.1784059773314899E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.4468516417777699</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.62924564657242099</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1893,13 +1893,13 @@
         <v>0.243986331659131</v>
       </c>
       <c r="C11" s="1">
+        <v>0.48939291366666698</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.243986331659131</v>
+      </c>
+      <c r="E11" s="1">
         <v>9.6904413742356903E-3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.48939291366666698</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.243986331659131</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1910,13 +1910,13 @@
         <v>0.68735894030914602</v>
       </c>
       <c r="C12" s="1">
+        <v>1.5709795337777701</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.68735894030914602</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.106314414102459</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.5709795337777701</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.68735894030914602</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1927,13 +1927,13 @@
         <v>0.48779825569588903</v>
       </c>
       <c r="C13" s="1">
+        <v>1.0801063017777699</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.48779825569588903</v>
+      </c>
+      <c r="E13" s="1">
         <v>5.3834094694731702E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.0801063017777699</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.48779825569588903</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1944,13 +1944,13 @@
         <v>0.61583786559309595</v>
       </c>
       <c r="C14" s="1">
+        <v>1.29470714177777</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.61583786559309595</v>
+      </c>
+      <c r="E14" s="1">
         <v>8.6727551205400794E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.29470714177777</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.61583786559309595</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1961,13 +1961,13 @@
         <v>0.32853692057533801</v>
       </c>
       <c r="C15" s="1">
+        <v>0.66498559111111</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.32853692057533801</v>
+      </c>
+      <c r="E15" s="1">
         <v>2.3581717210558899E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.66498559111111</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.32853692057533801</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,13 +1978,13 @@
         <v>0.72574344057368601</v>
       </c>
       <c r="C16" s="1">
+        <v>1.66131191477777</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.72574344057368601</v>
+      </c>
+      <c r="E16" s="1">
         <v>0.12185683674533</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.66131191477777</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.72574344057368601</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1995,13 +1995,13 @@
         <v>0.43946490435886498</v>
       </c>
       <c r="C17" s="1">
+        <v>0.91041741366666695</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.43946490435886498</v>
+      </c>
+      <c r="E17" s="1">
         <v>4.2947336858822197E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.91041741366666695</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.43946490435886498</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2012,13 +2012,13 @@
         <v>0.37534669213562</v>
       </c>
       <c r="C18" s="1">
+        <v>0.64450571922222299</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.37534669213562</v>
+      </c>
+      <c r="E18" s="1">
         <v>2.92601707711308E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.64450571922222299</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.37534669213562</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2029,13 +2029,13 @@
         <v>0.37331917528920699</v>
       </c>
       <c r="C19" s="1">
+        <v>0.81878142166666701</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.37331917528920699</v>
+      </c>
+      <c r="E19" s="1">
         <v>2.7246363868275902E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.81878142166666701</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.37331917528920699</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2046,13 +2046,13 @@
         <v>0.453810759605979</v>
       </c>
       <c r="C20" s="1">
+        <v>0.93405349877777899</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.453810759605979</v>
+      </c>
+      <c r="E20" s="1">
         <v>4.3958309877132701E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.93405349877777899</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.453810759605979</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2063,13 +2063,13 @@
         <v>0.65081086291991896</v>
       </c>
       <c r="C21" s="1">
+        <v>1.4540772527777699</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.65081086291991896</v>
+      </c>
+      <c r="E21" s="1">
         <v>9.4213037431349206E-2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.4540772527777699</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.65081086291991896</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2080,13 +2080,13 @@
         <v>0.45301198798463599</v>
       </c>
       <c r="C22" s="1">
+        <v>1.0342092217777701</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.45301198798463599</v>
+      </c>
+      <c r="E22" s="1">
         <v>4.6498093258077099E-2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.0342092217777701</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.45301198798463599</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2097,13 +2097,13 @@
         <v>0.31032207691220298</v>
       </c>
       <c r="C23" s="1">
+        <v>0.64271605011111099</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.31032207691220298</v>
+      </c>
+      <c r="E23" s="1">
         <v>2.1486346561777302E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.64271605011111099</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.31032207691220298</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2114,13 +2114,13 @@
         <v>0.31677503115061001</v>
       </c>
       <c r="C24" s="1">
+        <v>0.67117958277777801</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.31677503115061001</v>
+      </c>
+      <c r="E24" s="1">
         <v>2.2387856905943901E-2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.67117958277777801</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.31677503115061001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2131,13 +2131,13 @@
         <v>0.42927114301747699</v>
       </c>
       <c r="C25" s="1">
+        <v>0.78555555577777902</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.42927114301747699</v>
+      </c>
+      <c r="E25" s="1">
         <v>3.9177653396140301E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.78555555577777902</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.42927114301747699</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,13 +2148,13 @@
         <v>0.478578457193861</v>
       </c>
       <c r="C26" s="1">
+        <v>0.97034435677777897</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.478578457193861</v>
+      </c>
+      <c r="E26" s="1">
         <v>5.1802192399044301E-2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.97034435677777897</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.478578457193861</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2165,13 +2165,13 @@
         <v>0.308734165907039</v>
       </c>
       <c r="C27" s="1">
+        <v>0.70836294866666605</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.308734165907039</v>
+      </c>
+      <c r="E27" s="1">
         <v>1.8878674663208101E-2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.70836294866666605</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.308734165907039</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2182,13 +2182,13 @@
         <v>0.57322876131088896</v>
       </c>
       <c r="C28" s="1">
+        <v>1.1202185787777701</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.57322876131088896</v>
+      </c>
+      <c r="E28" s="1">
         <v>6.7147499248334894E-2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.1202185787777701</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.57322876131088896</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2199,13 +2199,13 @@
         <v>0.53200005379835202</v>
       </c>
       <c r="C29" s="1">
+        <v>1.1562981077777701</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.53200005379835202</v>
+      </c>
+      <c r="E29" s="1">
         <v>6.3335401521149096E-2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1.1562981077777701</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.53200005379835202</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2216,13 +2216,13 @@
         <v>0.47722615704058402</v>
       </c>
       <c r="C30" s="1">
+        <v>0.97943887266666696</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.47722615704058402</v>
+      </c>
+      <c r="E30" s="1">
         <v>3.7367113015973098E-2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.97943887266666696</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.47722615704058402</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2233,13 +2233,13 @@
         <v>0.55920919584272799</v>
       </c>
       <c r="C31" s="1">
+        <v>1.2033913437777699</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.55920919584272799</v>
+      </c>
+      <c r="E31" s="1">
         <v>7.0254820954304201E-2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.2033913437777699</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.55920919584272799</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2250,13 +2250,13 @@
         <v>0.561932451770492</v>
       </c>
       <c r="C32" s="1">
+        <v>1.1688125887777701</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.561932451770492</v>
+      </c>
+      <c r="E32" s="1">
         <v>7.0673999794255593E-2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.1688125887777701</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.561932451770492</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2267,13 +2267,13 @@
         <v>0.44635367634955198</v>
       </c>
       <c r="C33" s="1">
+        <v>0.74672187822222202</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.44635367634955198</v>
+      </c>
+      <c r="E33" s="1">
         <v>3.65146437737131E-2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.74672187822222202</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.44635367634955198</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2284,13 +2284,13 @@
         <v>0.37892184442052801</v>
       </c>
       <c r="C34" s="1">
+        <v>0.81682284677777905</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.37892184442052801</v>
+      </c>
+      <c r="E34" s="1">
         <v>3.2097643273020497E-2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.81682284677777905</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.37892184442052801</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2301,13 +2301,13 @@
         <v>0.36176782699537802</v>
       </c>
       <c r="C35" s="1">
+        <v>0.75111111277777898</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.36176782699537802</v>
+      </c>
+      <c r="E35" s="1">
         <v>2.8117524528886301E-2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.75111111277777898</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.36176782699537802</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2318,13 +2318,13 @@
         <v>0.50371745436913196</v>
       </c>
       <c r="C36" s="1">
+        <v>0.96476964722222203</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.50371745436913196</v>
+      </c>
+      <c r="E36" s="1">
         <v>4.8981099381076497E-2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.96476964722222203</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.50371745436913196</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2335,13 +2335,13 @@
         <v>0.66707496968658997</v>
       </c>
       <c r="C37" s="1">
+        <v>1.4528314147777699</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.66707496968658997</v>
+      </c>
+      <c r="E37" s="1">
         <v>9.5669207998927405E-2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.4528314147777699</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.66707496968658997</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2352,13 +2352,13 @@
         <v>0.48239579338184901</v>
       </c>
       <c r="C38" s="1">
+        <v>1.0169444452222201</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.48239579338184901</v>
+      </c>
+      <c r="E38" s="1">
         <v>4.9800101116303501E-2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.0169444452222201</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.48239579338184901</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2369,13 +2369,13 @@
         <v>0.61976500691620395</v>
       </c>
       <c r="C39" s="1">
+        <v>1.34126007877777</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.61976500691620395</v>
+      </c>
+      <c r="E39" s="1">
         <v>8.5928966989868696E-2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.34126007877777</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.61976500691620395</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2386,13 +2386,13 @@
         <v>0.50037524732104699</v>
       </c>
       <c r="C40" s="1">
+        <v>1.0889396627777701</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.50037524732104699</v>
+      </c>
+      <c r="E40" s="1">
         <v>5.5317293945570202E-2</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1.0889396627777701</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.50037524732104699</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2403,13 +2403,13 @@
         <v>0.47125020029978698</v>
       </c>
       <c r="C41" s="1">
+        <v>0.92592592677777896</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.47125020029978698</v>
+      </c>
+      <c r="E41" s="1">
         <v>4.8501595048944003E-2</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.92592592677777896</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.47125020029978698</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2420,13 +2420,13 @@
         <v>0.692462907487575</v>
       </c>
       <c r="C42" s="1">
+        <v>1.5215740737777701</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.692462907487575</v>
+      </c>
+      <c r="E42" s="1">
         <v>0.104449142717129</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1.5215740737777701</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.692462907487575</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2437,13 +2437,13 @@
         <v>0.42367394510387302</v>
       </c>
       <c r="C43" s="1">
+        <v>0.89356178766666705</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.42367394510387302</v>
+      </c>
+      <c r="E43" s="1">
         <v>3.8608028192653999E-2</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.89356178766666705</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.42367394510387302</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2454,13 +2454,13 @@
         <v>0.35331342015855499</v>
       </c>
       <c r="C44" s="1">
+        <v>0.827160493666666</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.35331342015855499</v>
+      </c>
+      <c r="E44" s="1">
         <v>2.1143672025791999E-2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.827160493666666</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.35331342015855499</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2471,13 +2471,13 @@
         <v>0.38484742838290797</v>
       </c>
       <c r="C45" s="1">
+        <v>0.855721393666666</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.38484742838290797</v>
+      </c>
+      <c r="E45" s="1">
         <v>2.9010648600822E-2</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.855721393666666</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.38484742838290797</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2488,13 +2488,13 @@
         <v>0.63640715057235597</v>
       </c>
       <c r="C46" s="1">
+        <v>1.10901583677777</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.63640715057235597</v>
+      </c>
+      <c r="E46" s="1">
         <v>8.0697138957985901E-2</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1.10901583677777</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.63640715057235597</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2505,13 +2505,13 @@
         <v>0.67818799248466199</v>
       </c>
       <c r="C47" s="1">
+        <v>1.5746582527777699</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.67818799248466199</v>
+      </c>
+      <c r="E47" s="1">
         <v>0.104831985848217</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1.5746582527777699</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.67818799248466199</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2522,13 +2522,13 @@
         <v>0.59531114750277203</v>
       </c>
       <c r="C48" s="1">
+        <v>1.29341873277777</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.59531114750277203</v>
+      </c>
+      <c r="E48" s="1">
         <v>8.1571985431371993E-2</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1.29341873277777</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.59531114750277203</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2539,13 +2539,13 @@
         <v>0.65568011980883201</v>
       </c>
       <c r="C49" s="1">
+        <v>1.45768673777777</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.65568011980883201</v>
+      </c>
+      <c r="E49" s="1">
         <v>9.2183678866863003E-2</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1.45768673777777</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.65568011980883201</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2556,13 +2556,13 @@
         <v>0.53253855460065402</v>
       </c>
       <c r="C50" s="1">
+        <v>1.0530492897777699</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.53253855460065402</v>
+      </c>
+      <c r="E50" s="1">
         <v>6.0572261831411803E-2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1.0530492897777699</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.53253855460065402</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2573,13 +2573,13 @@
         <v>0.48424068515134699</v>
       </c>
       <c r="C51" s="1">
+        <v>0.88359124477777895</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.48424068515134699</v>
+      </c>
+      <c r="E51" s="1">
         <v>4.9556352971896603E-2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.88359124477777895</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.48424068515134699</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2590,13 +2590,13 @@
         <v>0.43729265652318999</v>
       </c>
       <c r="C52" s="1">
+        <v>0.98797279977777896</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.43729265652318999</v>
+      </c>
+      <c r="E52" s="1">
         <v>4.3185147659009403E-2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.98797279977777896</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0.43729265652318999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2607,13 +2607,13 @@
         <v>0.506978562013775</v>
       </c>
       <c r="C53" s="1">
+        <v>1.06198112277777</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.506978562013775</v>
+      </c>
+      <c r="E53" s="1">
         <v>5.7156982220739803E-2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.06198112277777</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.506978562013775</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2624,13 +2624,13 @@
         <v>0.68106193020771699</v>
       </c>
       <c r="C54" s="1">
+        <v>1.41666666777777</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.68106193020771699</v>
+      </c>
+      <c r="E54" s="1">
         <v>9.9367076515921401E-2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.41666666777777</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.68106193020771699</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2641,13 +2641,13 @@
         <v>0.54791046708532798</v>
       </c>
       <c r="C55" s="1">
+        <v>1.2020271307777699</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.54791046708532798</v>
+      </c>
+      <c r="E55" s="1">
         <v>6.7886032454708298E-2</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1.2020271307777699</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.54791046708532798</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2658,13 +2658,13 @@
         <v>0.30238255715011397</v>
       </c>
       <c r="C56" s="1">
+        <v>0.55398148155555405</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.30238255715011397</v>
+      </c>
+      <c r="E56" s="1">
         <v>1.9676340267292199E-2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.55398148155555405</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.30238255715011397</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2675,13 +2675,13 @@
         <v>0.49506306844789699</v>
       </c>
       <c r="C57" s="1">
+        <v>1.09136484566666</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.49506306844789699</v>
+      </c>
+      <c r="E57" s="1">
         <v>5.32941275401436E-2</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1.09136484566666</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.49506306844789699</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2692,13 +2692,13 @@
         <v>0.50024094711040701</v>
       </c>
       <c r="C58" s="1">
+        <v>1.0535326617777701</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.50024094711040701</v>
+      </c>
+      <c r="E58" s="1">
         <v>5.6717722745440097E-2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1.0535326617777701</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.50024094711040701</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2709,13 +2709,13 @@
         <v>0.41795992805147902</v>
       </c>
       <c r="C59" s="1">
+        <v>0.94298963477777897</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.41795992805147902</v>
+      </c>
+      <c r="E59" s="1">
         <v>3.9112987428562999E-2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.94298963477777897</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0.41795992805147902</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2726,13 +2726,13 @@
         <v>0.54846531315549196</v>
       </c>
       <c r="C60" s="1">
+        <v>1.0509019877777701</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.54846531315549196</v>
+      </c>
+      <c r="E60" s="1">
         <v>6.1141437350850897E-2</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1.0509019877777701</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.54846531315549196</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2743,13 +2743,13 @@
         <v>0.51323474834870997</v>
       </c>
       <c r="C61" s="1">
+        <v>1.16150442577777</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.51323474834870997</v>
+      </c>
+      <c r="E61" s="1">
         <v>5.9813122898879099E-2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1.16150442577777</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0.51323474834870997</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2760,13 +2760,13 @@
         <v>0.32386253863204401</v>
       </c>
       <c r="C62" s="1">
+        <v>0.69739390766666698</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.32386253863204401</v>
+      </c>
+      <c r="E62" s="1">
         <v>2.0849387059243701E-2</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.69739390766666698</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0.32386253863204401</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2777,13 +2777,13 @@
         <v>0.53354096709817</v>
       </c>
       <c r="C63" s="1">
+        <v>1.0222222216666601</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.53354096709817</v>
+      </c>
+      <c r="E63" s="1">
         <v>4.9213521165647797E-2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1.0222222216666601</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0.53354096709817</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2794,13 +2794,13 @@
         <v>0.38602055236184601</v>
       </c>
       <c r="C64" s="1">
+        <v>0.72255206722222298</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.38602055236184601</v>
+      </c>
+      <c r="E64" s="1">
         <v>3.1150244107540099E-2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.72255206722222298</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.38602055236184601</v>
       </c>
     </row>
   </sheetData>
